--- a/StructureDefinition-additional-vaccination-willingness.xlsx
+++ b/StructureDefinition-additional-vaccination-willingness.xlsx
@@ -552,7 +552,7 @@
     <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
   </si>
   <si>
-    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/additional-vaccination-willingness-questionnaire</t>
+    <t>https://www.napkon.de/fhir/additional-vaccination-willingness-questionnaire</t>
   </si>
   <si>
     <t>Event.instantiates</t>
